--- a/Employment.xlsx
+++ b/Employment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiran\MSU Classes\CMSE 202\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D55496B-BFDC-48C1-AB65-1671B5588DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F172DF9-DA23-4D9F-BA9B-C566137F9EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34FEDD6C-1AA8-4C14-B28A-B92DDD779516}"/>
   </bookViews>
@@ -354,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -420,15 +420,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -470,15 +461,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -492,16 +474,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,18 +503,18 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,13 +525,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,36 +537,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -601,10 +549,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,8 +564,8 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -628,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -638,20 +586,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C56EC36-D104-4C93-9C7D-F148760C913C}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,4865 +956,4730 @@
     <col min="13" max="13" width="24.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="T1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="V1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="W1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>6365.5320000000002</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>30.510959894766096</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="21">
         <v>100.00000000000001</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="21">
         <v>5.5545987748447603</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="27">
         <v>0.13143497956223016</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="33">
         <v>43730</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="38">
         <v>683.85838518301603</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="34">
         <v>50360</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="38">
         <v>787.51159118828002</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="21">
         <v>30.450809883186299</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="27">
         <v>0.14082756436830901</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="8">
         <v>8103.232</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="17">
         <v>40.150400354791188</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="21">
         <v>100.00000000000001</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="41" t="s">
+      <c r="Q2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="57">
+      <c r="R2" s="43">
         <v>2.925579971272851</v>
       </c>
-      <c r="T2" s="41">
+      <c r="S2" s="27">
         <v>7.5742375608685922E-2</v>
       </c>
-      <c r="U2" s="47">
+      <c r="T2" s="33">
         <v>50600</v>
       </c>
-      <c r="V2" s="66">
+      <c r="U2" s="52">
         <v>4</v>
       </c>
-      <c r="W2" s="35">
+      <c r="V2" s="21">
         <v>34.836770136177222</v>
       </c>
-      <c r="X2" s="68">
+      <c r="W2" s="54">
         <v>0.1590481604201017</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>58.75</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>2.7724814607134891</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="22">
         <v>0.9229393552652001</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="28">
         <v>4.2944254339229611E-2</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="22">
         <v>3.8001821355391971</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="28">
         <v>0.99264232134976405</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>40150</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="39">
         <v>423.89944077514463</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>46240</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="39">
         <v>488.15036905530792</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="22">
         <v>0.28104250840891148</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="28">
         <v>1.3266052388173641E-2</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>78.200999999999993</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="18">
         <v>3.8671154818546611</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="22">
         <v>0.96505937383996909</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="42">
+      <c r="Q3" s="28">
         <v>4.6960322340531248E-2</v>
       </c>
-      <c r="S3" s="58">
+      <c r="R3" s="44">
         <v>1.7544109682752329</v>
       </c>
-      <c r="T3" s="42">
+      <c r="S3" s="28">
         <v>0.71596265598434505</v>
       </c>
-      <c r="U3" s="11">
+      <c r="T3" s="9">
         <v>45380</v>
       </c>
-      <c r="V3" s="53">
+      <c r="U3" s="39">
         <v>1856</v>
       </c>
-      <c r="W3" s="36">
+      <c r="V3" s="22">
         <v>0.3361955157422612</v>
       </c>
-      <c r="X3" s="69">
+      <c r="W3" s="55">
         <v>1.6620367069178046E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>47.179000000000002</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>2.5412777396420094</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="23">
         <v>0.74116350369458517</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="28">
         <v>3.9576138103710731E-2</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="23">
         <v>13.77905821577588</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="28">
         <v>2.4876350815427575</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>44300</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="39">
         <v>2686.4971904531694</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>51020</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="39">
         <v>3093.6926752904023</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="23">
         <v>0.22569028943360056</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="28">
         <v>1.2161446381384052E-2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>59.750999999999998</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="18">
         <v>3.6207315490105039</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="23">
         <v>0.73737244595736606</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="42">
+      <c r="Q4" s="28">
         <v>4.398841962000994E-2</v>
       </c>
-      <c r="S4" s="59">
+      <c r="R4" s="45">
         <v>1.8489220974782228</v>
       </c>
-      <c r="T4" s="42">
+      <c r="S4" s="28">
         <v>0.69768574967595021</v>
       </c>
-      <c r="U4" s="12">
+      <c r="T4" s="10">
         <v>52170</v>
       </c>
-      <c r="V4" s="53">
+      <c r="U4" s="39">
         <v>1239</v>
       </c>
-      <c r="W4" s="37">
+      <c r="V4" s="23">
         <v>0.25687674404567523</v>
       </c>
-      <c r="X4" s="69">
+      <c r="W4" s="55">
         <v>1.5507677601291594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>27.988</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>1.9018921236494983</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="23">
         <v>0.43968045404531786</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="28">
         <v>2.9344569767589371E-2</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="23">
         <v>5.1599275799637896</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="28">
         <v>1.6096201165016206</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>41250</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="39">
         <v>3100.203454240886</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>47510</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="39">
         <v>3570.1048757386452</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="23">
         <v>0.13388625915487001</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="28">
         <v>9.0851947957921175E-3</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>31.082999999999998</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="18">
         <v>2.2254409338376071</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="23">
         <v>0.38358768451896724</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="42">
+      <c r="Q5" s="28">
         <v>2.7491816747997149E-2</v>
       </c>
-      <c r="S5" s="59">
+      <c r="R5" s="45">
         <v>1.6756795218443148</v>
       </c>
-      <c r="T5" s="42">
+      <c r="S5" s="28">
         <v>0.77075412013417399</v>
       </c>
-      <c r="U5" s="12">
+      <c r="T5" s="10">
         <v>50140</v>
       </c>
-      <c r="V5" s="53">
+      <c r="U5" s="39">
         <v>1018</v>
       </c>
-      <c r="W5" s="37">
+      <c r="V5" s="23">
         <v>0.13362955992655726</v>
       </c>
-      <c r="X5" s="69">
+      <c r="W5" s="55">
         <v>9.5710881172900459E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>334.214</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>6.9916146132349173</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="23">
         <v>5.2503702754145296</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="28">
         <v>0.10777356829707012</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="23">
         <v>6.7808249004297689</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="28">
         <v>0.5517594586807163</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>37140</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="39">
         <v>803.06250948844729</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>42770</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="39">
         <v>883.90424347320766</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="23">
         <v>1.5987802707298031</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="28">
         <v>3.350779917676739E-2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>439.65100000000001</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>8.5095032258058421</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="23">
         <v>5.4256252320061922</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="42">
+      <c r="Q6" s="28">
         <v>0.10059871592963601</v>
       </c>
-      <c r="S6" s="59">
+      <c r="R6" s="45">
         <v>3.6533022133433546</v>
       </c>
-      <c r="T6" s="42">
+      <c r="S6" s="28">
         <v>0.41496445108412638</v>
       </c>
-      <c r="U6" s="12">
+      <c r="T6" s="10">
         <v>42520</v>
       </c>
-      <c r="V6" s="53">
+      <c r="U6" s="39">
         <v>1152</v>
       </c>
-      <c r="W6" s="37">
+      <c r="V6" s="23">
         <v>1.8901125905244291</v>
       </c>
-      <c r="X6" s="69">
+      <c r="W6" s="55">
         <v>3.6406659559883529E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>244.833</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>5.4000115509135709</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="23">
         <v>3.8462299773216126</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="28">
         <v>8.2363680079815926E-2</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="23">
         <v>6.0925621956699159</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="28">
         <v>0.69344648215865912</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>36170</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="39">
         <v>887.53697964119362</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>41650</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="39">
         <v>1022.0619856677238</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="23">
         <v>1.17120817806432</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="28">
         <v>2.5926319786344409E-2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>314.49700000000001</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>6.605926396047721</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="23">
         <v>3.8811303934035211</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="42">
+      <c r="Q7" s="28">
         <v>7.8139693894738835E-2</v>
       </c>
-      <c r="S7" s="59">
+      <c r="R7" s="45">
         <v>3.7154892974906386</v>
       </c>
-      <c r="T7" s="42">
+      <c r="S7" s="28">
         <v>0.39919492147522928</v>
       </c>
-      <c r="U7" s="12">
+      <c r="T7" s="10">
         <v>40500</v>
       </c>
-      <c r="V7" s="53">
+      <c r="U7" s="39">
         <v>23</v>
       </c>
-      <c r="W7" s="37">
+      <c r="V7" s="23">
         <v>1.3520604738352953</v>
       </c>
-      <c r="X7" s="69">
+      <c r="W7" s="55">
         <v>2.8186679999719577E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>89.381</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>3.9335973421284494</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="23">
         <v>1.4041402980929167</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="28">
         <v>6.1959950505712562E-2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="23">
         <v>8.6471634071440118</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="28">
         <v>1.0947287079178598</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>38860</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="39">
         <v>1798.6998115055474</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>44750</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="39">
         <v>2071.3308212923444</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="23">
         <v>0.42757209266547941</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="28">
         <v>1.8795148486762739E-2</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>125.154</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="18">
         <v>5.2494960043798491</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="23">
         <v>1.5444948386026711</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="42">
+      <c r="Q8" s="28">
         <v>6.4373468255942978E-2</v>
       </c>
-      <c r="S8" s="59">
+      <c r="R8" s="45">
         <v>3.5026403087130191</v>
       </c>
-      <c r="T8" s="42">
+      <c r="S8" s="28">
         <v>0.85700956584709764</v>
       </c>
-      <c r="U8" s="12">
+      <c r="T8" s="10">
         <v>48140</v>
       </c>
-      <c r="V8" s="53">
+      <c r="U8" s="39">
         <v>1389</v>
       </c>
-      <c r="W8" s="37">
+      <c r="V8" s="23">
         <v>0.53805211668913389</v>
       </c>
-      <c r="X8" s="69">
+      <c r="W8" s="55">
         <v>2.2590736330340457E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>1251.8409999999999</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>13.880651785849286</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="24">
         <v>19.665928943566698</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="29">
         <v>0.18775118264720647</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="24">
         <v>5.4916799738774138</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="29">
         <v>0.23868665656497931</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="36">
         <v>47160</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="40">
         <v>1003.8362131779212</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <v>54310</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="40">
         <v>1104.889193675906</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="49">
         <v>5.9884346343680024</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="29">
         <v>6.603102880977646E-2</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="36">
         <v>1431.971</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>16.085404267533942</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="49">
         <v>17.67160313316958</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="43">
+      <c r="Q9" s="29">
         <v>0.17550402942732024</v>
       </c>
-      <c r="S9" s="60">
+      <c r="R9" s="46">
         <v>2.8149257517290924</v>
       </c>
-      <c r="T9" s="43">
+      <c r="S9" s="29">
         <v>0.21925397217579512</v>
       </c>
-      <c r="U9" s="50">
+      <c r="T9" s="36">
         <v>54660</v>
       </c>
-      <c r="V9" s="54">
+      <c r="U9" s="40">
         <v>776</v>
       </c>
-      <c r="W9" s="63">
+      <c r="V9" s="49">
         <v>6.1562157628797776</v>
       </c>
-      <c r="X9" s="70">
+      <c r="W9" s="56">
         <v>6.8981988273180764E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>222.017</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>5.5042116783423207</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="23">
         <v>3.4877996057517264</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="28">
         <v>8.6377123445378651E-2</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="23">
         <v>5.7000457712454864</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="28">
         <v>0.66275289747472899</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>45960</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="39">
         <v>1425.4828005889001</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>52930</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="39">
         <v>1641.5448765797635</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="23">
         <v>1.0620632270539796</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="28">
         <v>2.6181086057835895E-2</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>266.41800000000001</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="18">
         <v>5.5598640046317716</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="23">
         <v>3.2877992386247854</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="42">
+      <c r="Q10" s="28">
         <v>7.1592196429703006E-2</v>
       </c>
-      <c r="S10" s="59">
+      <c r="R10" s="45">
         <v>3.721583610280041</v>
       </c>
-      <c r="T10" s="42">
+      <c r="S10" s="28">
         <v>0.60305032335891018</v>
       </c>
-      <c r="U10" s="12">
+      <c r="T10" s="10">
         <v>50260</v>
       </c>
-      <c r="V10" s="53">
+      <c r="U10" s="39">
         <v>255</v>
       </c>
-      <c r="W10" s="37">
+      <c r="V10" s="23">
         <v>1.1453630632987013</v>
       </c>
-      <c r="X10" s="69">
+      <c r="W10" s="55">
         <v>2.407433109200461E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>193.52600000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>5.7499715564513867</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="23">
         <v>3.0402172198647341</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="28">
         <v>8.6392443860931603E-2</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="23">
         <v>5.8048081693171234</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="28">
         <v>0.68007000418486996</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>50100</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="39">
         <v>140.51669771062069</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>57690</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="39">
         <v>161.81497602460297</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="23">
         <v>0.92577076565690197</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="28">
         <v>2.7584949664159069E-2</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>225.61199999999999</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="18">
         <v>6.229376345188979</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="23">
         <v>2.7842223942249213</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="42">
+      <c r="Q11" s="28">
         <v>7.6239720086192952E-2</v>
       </c>
-      <c r="S11" s="59">
+      <c r="R11" s="45">
         <v>2.3382132078097184</v>
       </c>
-      <c r="T11" s="42">
+      <c r="S11" s="28">
         <v>0.47232234239217358</v>
       </c>
-      <c r="U11" s="12">
+      <c r="T11" s="10">
         <v>60000</v>
       </c>
-      <c r="V11" s="53">
+      <c r="U11" s="39">
         <v>265</v>
       </c>
-      <c r="W11" s="37">
+      <c r="V11" s="23">
         <v>0.96993315555610593</v>
       </c>
-      <c r="X11" s="69">
+      <c r="W11" s="55">
         <v>2.6825381651070821E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>338.63799999999998</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>7.2377217997101821</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="23">
         <v>5.3198695725667555</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="28">
         <v>0.10951943677982247</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="23">
         <v>6.4572651089548527</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="28">
         <v>0.56900000206501433</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>43200</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="39">
         <v>1200.3227542210971</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>49750</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="39">
         <v>1382.2570616914782</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="23">
         <v>1.6199433695757781</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="28">
         <v>3.4691845511926958E-2</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>342.959</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="18">
         <v>8.4525401270860581</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="23">
         <v>4.2323729593327695</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="42">
+      <c r="Q12" s="28">
         <v>0.10052048050917285</v>
       </c>
-      <c r="S12" s="59">
+      <c r="R12" s="45">
         <v>2.3545052828913389</v>
       </c>
-      <c r="T12" s="42">
+      <c r="S12" s="28">
         <v>0.34001399758832845</v>
       </c>
-      <c r="U12" s="12">
+      <c r="T12" s="10">
         <v>50600</v>
       </c>
-      <c r="V12" s="53">
+      <c r="U12" s="39">
         <v>25</v>
       </c>
-      <c r="W12" s="37">
+      <c r="V12" s="23">
         <v>1.4744220391484784</v>
       </c>
-      <c r="X12" s="69">
+      <c r="W12" s="55">
         <v>3.6035184893987618E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>186.864</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>5.4814268489144293</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="23">
         <v>2.9355598243791721</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="28">
         <v>8.3226988644799521E-2</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="23">
         <v>4.601586234085481</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="28">
         <v>0.57069516835749468</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>44250</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="39">
         <v>764.75957586409606</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>50960</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="39">
         <v>880.67506886536273</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="23">
         <v>0.89390174112889909</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="28">
         <v>2.6199794663594823E-2</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>199.67500000000001</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="18">
         <v>6.0773100916441622</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="23">
         <v>2.4641402344151073</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="42">
+      <c r="Q13" s="28">
         <v>7.3515974950683877E-2</v>
       </c>
-      <c r="S13" s="59">
+      <c r="R13" s="45">
         <v>2.9178497470165028</v>
       </c>
-      <c r="T13" s="42">
+      <c r="S13" s="28">
         <v>0.56838475163834223</v>
       </c>
-      <c r="U13" s="12">
+      <c r="T13" s="10">
         <v>52160</v>
       </c>
-      <c r="V13" s="53">
+      <c r="U13" s="39">
         <v>1050</v>
       </c>
-      <c r="W13" s="37">
+      <c r="V13" s="23">
         <v>0.85842686929624956</v>
       </c>
-      <c r="X13" s="69">
+      <c r="W13" s="55">
         <v>2.6214420994415403E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>170.07400000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>5.510060553206289</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="23">
         <v>2.671795538848913</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="28">
         <v>8.5783705289037532E-2</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="23">
         <v>4.9073556323708827</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="28">
         <v>0.6082206439259028</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>52620</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="39">
         <v>1865.0235431743101</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>60590</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="39">
         <v>2147.7073176425847</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="23">
         <v>0.81358338000233532</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="28">
         <v>2.6240487493540382E-2</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>187.286</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="18">
         <v>6.1171534801736014</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="23">
         <v>2.3112506219740472</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="42">
+      <c r="Q14" s="28">
         <v>7.3114869160079463E-2</v>
       </c>
-      <c r="S14" s="59">
+      <c r="R14" s="45">
         <v>2.075208994112923</v>
       </c>
-      <c r="T14" s="42">
+      <c r="S14" s="28">
         <v>0.47497576732545266</v>
       </c>
-      <c r="U14" s="12">
+      <c r="T14" s="10">
         <v>65270</v>
       </c>
-      <c r="V14" s="53">
+      <c r="U14" s="39">
         <v>709</v>
       </c>
-      <c r="W14" s="37">
+      <c r="V14" s="23">
         <v>0.80516506644806496</v>
       </c>
-      <c r="X14" s="69">
+      <c r="W14" s="55">
         <v>2.6301274290308985E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:23" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>22.655999999999999</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>1.6076729300451624</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="24">
         <v>0.35591683460235535</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="29">
         <v>2.529492777370615E-2</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="24">
         <v>3.3898305084745761</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="29">
         <v>1.118188558585314</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="36">
         <v>55020</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="40">
         <v>1939.2445680914439</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>63360</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="40">
         <v>2233.1781091083858</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="49">
         <v>0.10837955864701782</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="29">
         <v>7.6638413197062652E-3</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="36">
         <v>26.013999999999999</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="19">
         <v>2.0196277503540103</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="49">
         <v>0.32103239793702071</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="43">
+      <c r="Q15" s="29">
         <v>2.4658591868428038E-2</v>
       </c>
-      <c r="S15" s="60">
+      <c r="R15" s="46">
         <v>2.1683876092136614</v>
       </c>
-      <c r="T15" s="65">
+      <c r="S15" s="51">
         <v>1.0016900310696188</v>
       </c>
-      <c r="U15" s="50">
+      <c r="T15" s="36">
         <v>64390</v>
       </c>
-      <c r="V15" s="54">
+      <c r="U15" s="40">
         <v>3029</v>
       </c>
-      <c r="W15" s="63">
+      <c r="V15" s="49">
         <v>0.11183731853197762</v>
       </c>
-      <c r="X15" s="70">
+      <c r="W15" s="56">
         <v>8.668096379936794E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:23" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>118.066</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>3.6663546746052806</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="24">
         <v>1.8547703475530402</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="29">
         <v>5.6739889066781082E-2</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="24">
         <v>4.514599520294861</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="29">
         <v>0.5734679531918595</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="36">
         <v>44400</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="40">
         <v>720.25319642286399</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>51130</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="40">
         <v>829.4228060413659</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="49">
         <v>0.56479259230308998</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="29">
         <v>1.7586572133391321E-2</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="36">
         <v>184.00700000000001</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="19">
         <v>6.138055298708216</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="49">
         <v>2.2707852866609275</v>
       </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="43">
+      <c r="Q16" s="29">
         <v>7.3516515276872474E-2</v>
       </c>
-      <c r="S16" s="60">
+      <c r="R16" s="46">
         <v>3.7093129334040893</v>
       </c>
-      <c r="T16" s="43">
+      <c r="S16" s="29">
         <v>0.74427720166809441</v>
       </c>
-      <c r="U16" s="50">
+      <c r="T16" s="36">
         <v>50520</v>
       </c>
-      <c r="V16" s="54">
+      <c r="U16" s="40">
         <v>73</v>
       </c>
-      <c r="W16" s="63">
+      <c r="V16" s="49">
         <v>0.79106825060020014</v>
       </c>
-      <c r="X16" s="70">
+      <c r="W16" s="56">
         <v>2.63362731808322E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:23" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>373.13299999999998</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>8.2041725298777148</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="24">
         <v>5.8617724331603398</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="29">
         <v>0.12386247959840672</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="24">
         <v>6.3768409772203967</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="29">
         <v>0.44799261402542584</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="36">
         <v>40260</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="40">
         <v>17.550970041569499</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>46360</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="40">
         <v>20.211190860276222</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="49">
         <v>1.7849571794066783</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="29">
         <v>3.8839377855938308E-2</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="36">
         <v>446.46600000000001</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <v>8.370867511793497</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="49">
         <v>5.5097274766414195</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="43">
+      <c r="Q17" s="29">
         <v>0.10621640109207407</v>
       </c>
-      <c r="S17" s="60">
+      <c r="R17" s="46">
         <v>3.2645618221884352</v>
       </c>
-      <c r="T17" s="43">
+      <c r="S17" s="29">
         <v>0.36859065172511701</v>
       </c>
-      <c r="U17" s="50">
+      <c r="T17" s="36">
         <v>45570</v>
       </c>
-      <c r="V17" s="54">
+      <c r="U17" s="40">
         <v>511</v>
       </c>
-      <c r="W17" s="63">
+      <c r="V17" s="49">
         <v>1.9194110961673685</v>
       </c>
-      <c r="X17" s="70">
+      <c r="W17" s="56">
         <v>3.6206870513936187E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>248.57300000000001</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>6.1708245437704683</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="23">
         <v>3.9049839039376444</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="28">
         <v>9.6567616882764357E-2</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="23">
         <v>5.6091603737647615</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="28">
         <v>0.54547116704805287</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>56320</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="39">
         <v>1809.0352910427018</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>64860</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="39">
         <v>2083.2328614111038</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="23">
         <v>1.1890992245570782</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="28">
         <v>2.9417077144254285E-2</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>309.96100000000001</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="18">
         <v>7.0530705582746025</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="23">
         <v>3.8251527291826273</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="42">
+      <c r="Q18" s="28">
         <v>8.2528060269982106E-2</v>
       </c>
-      <c r="S18" s="59">
+      <c r="R18" s="45">
         <v>5.5827814809054841</v>
       </c>
-      <c r="T18" s="42">
+      <c r="S18" s="28">
         <v>0.64639509953002039</v>
       </c>
-      <c r="U18" s="12">
+      <c r="T18" s="10">
         <v>70140</v>
       </c>
-      <c r="V18" s="53">
+      <c r="U18" s="39">
         <v>423</v>
       </c>
-      <c r="W18" s="37">
+      <c r="V18" s="23">
         <v>1.3325596636230614</v>
       </c>
-      <c r="X18" s="69">
+      <c r="W18" s="55">
         <v>3.0073439305805201E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:23" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>34.753999999999998</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>2.6447528523474557</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="24">
         <v>0.54597164855977476</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="29">
         <v>4.1716153373709923E-2</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="24">
         <v>4.8360707318608016</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="29">
         <v>1.6366938595597089</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="36">
         <v>49720</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="40">
         <v>1595.4630124675875</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>57260</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="40">
         <v>1837.289185675691</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="49">
         <v>0.16625278871903504</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="29">
         <v>1.2656612264937413E-2</v>
       </c>
-      <c r="N19" s="50">
+      <c r="N19" s="36">
         <v>35.802999999999997</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="19">
         <v>2.3656000295908011</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="49">
         <v>0.44183604764123746</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="43">
+      <c r="Q19" s="29">
         <v>2.8866076898557823E-2</v>
       </c>
-      <c r="S19" s="60" t="s">
+      <c r="R19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="65" t="s">
+      <c r="S19" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="U19" s="50">
+      <c r="T19" s="36">
         <v>59920</v>
       </c>
-      <c r="V19" s="54">
+      <c r="U19" s="40">
         <v>1015</v>
       </c>
-      <c r="W19" s="63">
+      <c r="V19" s="49">
         <v>0.15392140829554835</v>
       </c>
-      <c r="X19" s="70">
+      <c r="W19" s="56">
         <v>1.017529958159792E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>139.678</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>4.7443206046809276</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="23">
         <v>2.1942863534422576</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="28">
         <v>7.2173241640466124E-2</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="23">
         <v>6.1603362317933144</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="28">
         <v>0.74231109174051202</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>39300</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="39">
         <v>1458.1126879277404</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <v>45250</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="39">
         <v>1679.1205136637884</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="23">
         <v>0.66817796577940303</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="28">
         <v>2.2676434704289584E-2</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <v>211.65100000000001</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="18">
         <v>5.9282676432495887</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="23">
         <v>2.6119331150829694</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="42">
+      <c r="Q20" s="28">
         <v>7.096458742587694E-2</v>
       </c>
-      <c r="S20" s="59">
+      <c r="R20" s="45">
         <v>3.8256196122058141</v>
       </c>
-      <c r="T20" s="42">
+      <c r="S20" s="28">
         <v>0.60131090519925923</v>
       </c>
-      <c r="U20" s="12">
+      <c r="T20" s="10">
         <v>41810</v>
       </c>
-      <c r="V20" s="53">
+      <c r="U20" s="39">
         <v>1237</v>
       </c>
-      <c r="W20" s="37">
+      <c r="V20" s="23">
         <v>0.90991313541214713</v>
       </c>
-      <c r="X20" s="69">
+      <c r="W20" s="55">
         <v>2.5350002676879844E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>572.58199999999999</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>7.9583190090621629</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="24">
         <v>8.9950376496418532</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="29">
         <v>0.12209312264181628</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="24">
         <v>3.3568735343255218</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="29">
         <v>0.30639986377091033</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="36">
         <v>38260</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="40">
         <v>79.738149425386581</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>44060</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="40">
         <v>87.765133860745678</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="49">
         <v>2.7390618136134695</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="29">
         <v>3.7996628109053243E-2</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="36">
         <v>537.00900000000001</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="19">
         <v>8.4223149371179229</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="49">
         <v>6.6270964474422058</v>
       </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="43">
+      <c r="Q21" s="29">
         <v>9.9136786899185092E-2</v>
       </c>
-      <c r="S21" s="60">
+      <c r="R21" s="46">
         <v>1.2376921417236144</v>
       </c>
-      <c r="T21" s="43">
+      <c r="S21" s="29">
         <v>0.18575136256388877</v>
       </c>
-      <c r="U21" s="50">
+      <c r="T21" s="36">
         <v>41510</v>
       </c>
-      <c r="V21" s="54">
+      <c r="U21" s="40">
         <v>506</v>
       </c>
-      <c r="W21" s="63">
+      <c r="V21" s="49">
         <v>2.3086663560982079</v>
       </c>
-      <c r="X21" s="70">
+      <c r="W21" s="56">
         <v>3.5939857138075564E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>151.22999999999999</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>5.3432825491452309</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="23">
         <v>2.3757637224979784</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="28">
         <v>8.5279425249342775E-2</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="23">
         <v>4.7204968944099379</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="28">
         <v>0.7993597424602723</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>39350</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="39">
         <v>1076.0140636698291</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>45310</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="39">
         <v>1239.1067592083673</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="23">
         <v>0.72343929441156907</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="28">
         <v>2.5525651296081434E-2</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="10">
         <v>160.04400000000001</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="18">
         <v>5.9105079519445711</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="23">
         <v>1.9750637770213169</v>
       </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="42">
+      <c r="Q22" s="28">
         <v>7.2069194161136274E-2</v>
       </c>
-      <c r="S22" s="59">
+      <c r="R22" s="45">
         <v>1.4148626303299501</v>
       </c>
-      <c r="T22" s="42">
+      <c r="S22" s="28">
         <v>0.35008542086932271</v>
       </c>
-      <c r="U22" s="12">
+      <c r="T22" s="10">
         <v>41260</v>
       </c>
-      <c r="V22" s="53">
+      <c r="U22" s="39">
         <v>1264</v>
       </c>
-      <c r="W22" s="37">
+      <c r="V22" s="23">
         <v>0.68804842804381594</v>
       </c>
-      <c r="X22" s="69">
+      <c r="W22" s="55">
         <v>2.5409459608201429E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>31.946999999999999</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>1.9522315308384919</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="23">
         <v>0.50187478438565702</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="28">
         <v>3.0745172994394256E-2</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="23">
         <v>1.1659683002368373</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="28">
         <v>0.58239502255543885</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>36820</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="39">
         <v>1807.6214515217284</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <v>42400</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="39">
         <v>2081.604724599491</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="23">
         <v>0.15282493644492756</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="28">
         <v>9.3180129844624097E-3</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="10">
         <v>41.895000000000003</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="18">
         <v>2.5724644118043698</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="23">
         <v>0.51701592648464212</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="42">
+      <c r="Q23" s="28">
         <v>3.1639735912188778E-2</v>
       </c>
-      <c r="S23" s="59">
+      <c r="R23" s="45">
         <v>1.8131753948462177</v>
       </c>
-      <c r="T23" s="42">
+      <c r="S23" s="28">
         <v>0.80357930449404513</v>
       </c>
-      <c r="U23" s="12">
+      <c r="T23" s="10">
         <v>38130</v>
       </c>
-      <c r="V23" s="53">
+      <c r="U23" s="39">
         <v>736</v>
       </c>
-      <c r="W23" s="37">
+      <c r="V23" s="23">
         <v>0.18011164987688177</v>
       </c>
-      <c r="X23" s="69">
+      <c r="W23" s="55">
         <v>1.1033476798455366E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>180.83600000000001</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>5.0366287335875723</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="23">
         <v>2.8408623191274507</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="28">
         <v>7.8990832531216276E-2</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="23">
         <v>3.2119431372070908</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="28">
         <v>0.52815782114904442</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>38150</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="39">
         <v>938.35352994411176</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>43940</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="39">
         <v>1080.5808592456801</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="23">
         <v>0.86506558384057719</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="28">
         <v>2.4165160823863833E-2</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="10">
         <v>133.733</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="18">
         <v>4.1545784383015327</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="23">
         <v>1.6503661748793568</v>
       </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="42">
+      <c r="Q24" s="28">
         <v>5.0840710899745664E-2</v>
       </c>
-      <c r="S24" s="59">
+      <c r="R24" s="45">
         <v>1.3070195402672562</v>
       </c>
-      <c r="T24" s="42">
+      <c r="S24" s="28">
         <v>0.35907876347554202</v>
       </c>
-      <c r="U24" s="12">
+      <c r="T24" s="10">
         <v>40490</v>
       </c>
-      <c r="V24" s="53">
+      <c r="U24" s="39">
         <v>72</v>
       </c>
-      <c r="W24" s="37">
+      <c r="V24" s="23">
         <v>0.57493427074794212</v>
       </c>
-      <c r="X24" s="69">
+      <c r="W24" s="55">
         <v>1.7907465074829376E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>18.966999999999999</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>1.4373308596144456</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="23">
         <v>0.29796409789472428</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="28">
         <v>2.2407077410663664E-2</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="23">
         <v>2.483556361986845</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="28">
         <v>1.0783025040372833</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>36140</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="39">
         <v>975.73576264152246</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>41620</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="39">
         <v>1123.6291601681437</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="23">
         <v>9.0732480970073581E-2</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="28">
         <v>6.8782950690064034E-3</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="10">
         <v>17.445</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="18">
         <v>1.9191560124179592</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="23">
         <v>0.21528446920932287</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="42">
+      <c r="Q25" s="28">
         <v>2.3501709288972428E-2</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="R25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T25" s="46" t="s">
+      <c r="S25" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="U25" s="12">
+      <c r="T25" s="10">
         <v>43500</v>
       </c>
-      <c r="V25" s="53">
+      <c r="U25" s="39">
         <v>1297</v>
       </c>
-      <c r="W25" s="37">
+      <c r="V25" s="23">
         <v>7.4998155677341041E-2</v>
       </c>
-      <c r="X25" s="69">
+      <c r="W25" s="55">
         <v>8.2393390448967929E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>189.602</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>4.7728545441905128</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="23">
         <v>2.9785727257360421</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="28">
         <v>7.1469454563113072E-2</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="23">
         <v>2.8692002217520676</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="28">
         <v>0.450550494580651</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>38480</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="39">
         <v>940.0049079447507</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>44320</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="39">
         <v>1082.482538518924</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="23">
         <v>0.90699951794632216</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="28">
         <v>2.2800788344974818E-2</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="10">
         <v>183.892</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="18">
         <v>4.7541063723900816</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="23">
         <v>2.2693660998475673</v>
       </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="42">
+      <c r="Q26" s="28">
         <v>5.8175294997153452E-2</v>
       </c>
-      <c r="S26" s="59">
+      <c r="R26" s="45">
         <v>0.91612999936580042</v>
       </c>
-      <c r="T26" s="42">
+      <c r="S26" s="28">
         <v>0.27339919224481124</v>
       </c>
-      <c r="U26" s="12">
+      <c r="T26" s="10">
         <v>43000</v>
       </c>
-      <c r="V26" s="53">
+      <c r="U26" s="39">
         <v>636</v>
       </c>
-      <c r="W26" s="37">
+      <c r="V26" s="23">
         <v>0.79057385175222683</v>
       </c>
-      <c r="X26" s="69">
+      <c r="W26" s="55">
         <v>2.0309794102935583E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:23" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>473.64600000000002</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <v>8.7604447603988724</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="24">
         <v>7.4407920657692088</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="29">
         <v>0.13449658371018353</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="24">
         <v>4.9762543381497615</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="29">
         <v>0.41466181013535525</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="36">
         <v>60580</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="40">
         <v>748.0152653964376</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>69760</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="40">
         <v>823.31556940420262</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="49">
         <v>2.2657814457505916</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="29">
         <v>4.2001101387678388E-2</v>
       </c>
-      <c r="N27" s="50">
+      <c r="N27" s="36">
         <v>715.93299999999999</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="19">
         <v>12.008831608445528</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="49">
         <v>8.8351536769526042</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="43">
+      <c r="Q27" s="29">
         <v>0.14108340338307707</v>
       </c>
-      <c r="S27" s="60">
+      <c r="R27" s="46">
         <v>2.6778855517899576</v>
       </c>
-      <c r="T27" s="43">
+      <c r="S27" s="29">
         <v>0.22345573829845825</v>
       </c>
-      <c r="U27" s="50">
+      <c r="T27" s="36">
         <v>70890</v>
       </c>
-      <c r="V27" s="54">
+      <c r="U27" s="40">
         <v>1237</v>
       </c>
-      <c r="W27" s="63">
+      <c r="V27" s="49">
         <v>3.0778821776179881</v>
       </c>
-      <c r="X27" s="70">
+      <c r="W27" s="56">
         <v>5.0995819479541196E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>63.223999999999997</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>3.0345443809573771</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="23">
         <v>0.99322413271977894</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="28">
         <v>4.8234713810072653E-2</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="23">
         <v>4.302942595272552</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="28">
         <v>1.4351063213369599</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <v>60100</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="39">
         <v>323.67388175784157</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>69210</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="39">
         <v>372.73350619366727</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="23">
         <v>0.30244479236842586</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="28">
         <v>1.4537010464488015E-2</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="10">
         <v>91.18</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="18">
         <v>5.0816425297338643</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="23">
         <v>1.1252300316713133</v>
       </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="42">
+      <c r="Q28" s="28">
         <v>6.3176408331414052E-2</v>
       </c>
-      <c r="S28" s="59">
+      <c r="R28" s="45">
         <v>2.3779166135407372</v>
       </c>
-      <c r="T28" s="42">
+      <c r="S28" s="28">
         <v>0.94165318478525828</v>
       </c>
-      <c r="U28" s="12">
+      <c r="T28" s="10">
         <v>68860</v>
       </c>
-      <c r="V28" s="53">
+      <c r="U28" s="39">
         <v>2539</v>
       </c>
-      <c r="W28" s="37">
+      <c r="V28" s="23">
         <v>0.39199379963656955</v>
       </c>
-      <c r="X28" s="69">
+      <c r="W28" s="55">
         <v>2.1821764887803435E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>28.306000000000001</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>2.2253433442954376</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="23">
         <v>0.44467610876828517</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="28">
         <v>3.4587759122765668E-2</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="23">
         <v>4.4241004896742604</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="28">
         <v>1.4193898618763594</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <v>65580</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="39">
         <v>3097.9817713765688</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>75520</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="39">
         <v>3567.546449834244</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="23">
         <v>0.13540747647698123</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="28">
         <v>1.0639439061043421E-2</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="10">
         <v>49.323999999999998</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="18">
         <v>2.5339953235947386</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="23">
         <v>0.60869539462772393</v>
       </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="42">
+      <c r="Q29" s="28">
         <v>3.1052499754698065E-2</v>
       </c>
-      <c r="S29" s="59">
+      <c r="R29" s="45">
         <v>3.3649827464260458</v>
       </c>
-      <c r="T29" s="42">
+      <c r="S29" s="28">
         <v>1.0807420077635581</v>
       </c>
-      <c r="U29" s="12">
+      <c r="T29" s="10">
         <v>77750</v>
       </c>
-      <c r="V29" s="53">
+      <c r="U29" s="39">
         <v>2728</v>
       </c>
-      <c r="W29" s="37">
+      <c r="V29" s="23">
         <v>0.21204981545595697</v>
       </c>
-      <c r="X29" s="69">
+      <c r="W29" s="55">
         <v>1.0850934770489274E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>46.033999999999999</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>2.9496349943679472</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="23">
         <v>0.7231760047706931</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="28">
         <v>4.6261172202360624E-2</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="23">
         <v>6.6192771084337352</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="28">
         <v>1.692211992754757</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <v>58910</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="39">
         <v>1275.8497871491104</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>67840</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="39">
         <v>1469.2318143121565</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="23">
         <v>0.22021295033354601</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="28">
         <v>1.4062401007672191E-2</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="10">
         <v>66.608000000000004</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="18">
         <v>3.3992405990161978</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="23">
         <v>0.82199300229834227</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="42">
+      <c r="Q30" s="28">
         <v>4.1451235467866096E-2</v>
       </c>
-      <c r="S30" s="59">
+      <c r="R30" s="45">
         <v>1.0255724999582421</v>
       </c>
-      <c r="T30" s="42">
+      <c r="S30" s="28">
         <v>0.46948125156819448</v>
       </c>
-      <c r="U30" s="12">
+      <c r="T30" s="10">
         <v>65420</v>
       </c>
-      <c r="V30" s="53">
+      <c r="U30" s="39">
         <v>647</v>
       </c>
-      <c r="W30" s="37">
+      <c r="V30" s="23">
         <v>0.28635581274613542</v>
       </c>
-      <c r="X30" s="69">
+      <c r="W30" s="55">
         <v>1.459260784295058E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>44.787999999999997</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>2.8425352240561592</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="23">
         <v>0.70360183563604739</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="28">
         <v>4.4366408004587549E-2</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="23">
         <v>7.1175929066330728</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="28">
         <v>1.4965998130361602</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <v>65320</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="39">
         <v>842.25517174370441</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <v>75220</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="39">
         <v>969.91676179993374</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="23">
         <v>0.21425245730414172</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="28">
         <v>1.3538468156277402E-2</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="10">
         <v>62.540999999999997</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="18">
         <v>2.7566921572783563</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="23">
         <v>0.7718031521249793</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="42">
+      <c r="Q31" s="28">
         <v>3.4235483400811353E-2</v>
       </c>
-      <c r="S31" s="59">
+      <c r="R31" s="45">
         <v>1.5454395815425133</v>
       </c>
-      <c r="T31" s="42">
+      <c r="S31" s="28">
         <v>0.5584643217005707</v>
       </c>
-      <c r="U31" s="12">
+      <c r="T31" s="10">
         <v>75730</v>
       </c>
-      <c r="V31" s="53">
+      <c r="U31" s="39">
         <v>2641</v>
       </c>
-      <c r="W31" s="37">
+      <c r="V31" s="23">
         <v>0.26887129000954918</v>
       </c>
-      <c r="X31" s="69">
+      <c r="W31" s="55">
         <v>1.1857203630132845E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>85.593999999999994</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>4.3484674541727921</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="23">
         <v>1.3446480199926729</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="28">
         <v>6.8675474215062524E-2</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="23">
         <v>5.1033600341201399</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="28">
         <v>1.1278672724911394</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <v>65060</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="39">
         <v>684.63362958541154</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>74920</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="39">
         <v>788.4043402809549</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="23">
         <v>0.40945621216599776</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="28">
         <v>2.0839544766495084E-2</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="10">
         <v>118.3</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="18">
         <v>4.2981495088002708</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="23">
         <v>1.4599113045263914</v>
       </c>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="42">
+      <c r="Q32" s="28">
         <v>5.2489757925527313E-2</v>
       </c>
-      <c r="S32" s="59">
+      <c r="R32" s="45">
         <v>1.8899966607832848</v>
       </c>
-      <c r="T32" s="42">
+      <c r="S32" s="28">
         <v>0.43972248881715575</v>
       </c>
-      <c r="U32" s="12">
+      <c r="T32" s="10">
         <v>78740</v>
       </c>
-      <c r="V32" s="53">
+      <c r="U32" s="39">
         <v>1175</v>
       </c>
-      <c r="W32" s="37">
+      <c r="V32" s="23">
         <v>0.50858594534992518</v>
       </c>
-      <c r="X32" s="69">
+      <c r="W32" s="55">
         <v>1.8375084926615055E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>85.744</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>3.8668954343245434</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="23">
         <v>1.3470044608997331</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="28">
         <v>5.9707761686566156E-2</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="23">
         <v>3.696515443645696</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="28">
         <v>0.77241200336013105</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <v>61620</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="39">
         <v>1427.6131021994147</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>70960</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="39">
         <v>1643.9980704680834</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="23">
         <v>0.41017376750661622</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="28">
         <v>1.8489335000002161E-2</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="10">
         <v>148.28800000000001</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="18">
         <v>4.7274024368568419</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="23">
         <v>1.8299858624311878</v>
       </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="42">
+      <c r="Q33" s="28">
         <v>5.687706055850171E-2</v>
       </c>
-      <c r="S33" s="59">
+      <c r="R33" s="45">
         <v>3.2662373505059801</v>
       </c>
-      <c r="T33" s="42">
+      <c r="S33" s="28">
         <v>0.6435289040657326</v>
       </c>
-      <c r="U33" s="12">
+      <c r="T33" s="10">
         <v>73960</v>
       </c>
-      <c r="V33" s="53">
+      <c r="U33" s="39">
         <v>1556</v>
       </c>
-      <c r="W33" s="37">
+      <c r="V33" s="23">
         <v>0.63750796841969326</v>
       </c>
-      <c r="X33" s="69">
+      <c r="W33" s="55">
         <v>2.0266697774742624E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>77.527000000000001</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>3.5882967965317469</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="23">
         <v>1.2179186280109817</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="28">
         <v>5.6060139149831434E-2</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="23">
         <v>4.8549715392999877</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="28">
         <v>1.0085454292705329</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <v>59850</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="39">
         <v>599.57744390530286</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>68930</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="39">
         <v>690.45609020952816</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="23">
         <v>0.37086608594753495</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="28">
         <v>1.7269349512451189E-2</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="10">
         <v>128.66300000000001</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="18">
         <v>4.452759588165522</v>
       </c>
-      <c r="P34" s="27">
+      <c r="P34" s="23">
         <v>1.5877985475425114</v>
       </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="42">
+      <c r="Q34" s="28">
         <v>5.404652404962805E-2</v>
       </c>
-      <c r="S34" s="59">
+      <c r="R34" s="45">
         <v>3.0016213137022918</v>
       </c>
-      <c r="T34" s="42">
+      <c r="S34" s="28">
         <v>0.70533376434357842</v>
       </c>
-      <c r="U34" s="12">
+      <c r="T34" s="10">
         <v>70480</v>
       </c>
-      <c r="V34" s="53">
+      <c r="U34" s="39">
         <v>477</v>
       </c>
-      <c r="W34" s="37">
+      <c r="V34" s="23">
         <v>0.55313773023294532</v>
       </c>
-      <c r="X34" s="69">
+      <c r="W34" s="55">
         <v>1.9124011533579025E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>42.429000000000002</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>2.5278790714747417</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="23">
         <v>0.66654287497101583</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="28">
         <v>3.9446045518166044E-2</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="23">
         <v>4.7167366402322086</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="28">
         <v>1.1716101596334281</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <v>55890</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="39">
         <v>2180.1699815021034</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>64360</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="39">
         <v>2510.6208659475024</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="23">
         <v>0.20296770364734815</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="28">
         <v>1.2108034831667289E-2</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="10">
         <v>51.029000000000003</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="18">
         <v>3.4636926465839895</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="23">
         <v>0.62973638173015412</v>
       </c>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="42">
+      <c r="Q35" s="28">
         <v>4.2186467531548727E-2</v>
       </c>
-      <c r="S35" s="59">
+      <c r="R35" s="45">
         <v>5.1703381418041268</v>
       </c>
-      <c r="T35" s="42">
+      <c r="S35" s="28">
         <v>1.2001553191980827</v>
       </c>
-      <c r="U35" s="12">
+      <c r="T35" s="10">
         <v>60570</v>
       </c>
-      <c r="V35" s="53">
+      <c r="U35" s="39">
         <v>3451</v>
       </c>
-      <c r="W35" s="37">
+      <c r="V35" s="23">
         <v>0.2193798157672133</v>
       </c>
-      <c r="X35" s="69">
+      <c r="W35" s="55">
         <v>1.4876980013925505E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>193.601</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>5.1644807725462627</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="24">
         <v>3.0413954403182641</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="29">
         <v>8.027948663263379E-2</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="24">
         <v>7.5681993943079116</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G36" s="29">
         <v>0.73193259220391294</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="36">
         <v>38100</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I36" s="40">
         <v>1099.6765886926291</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="13">
         <v>43870</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="40">
         <v>1266.3558405035403</v>
       </c>
-      <c r="L36" s="63">
+      <c r="L36" s="49">
         <v>0.92612954332721131</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="29">
         <v>2.457979812748257E-2</v>
       </c>
-      <c r="N36" s="50">
+      <c r="N36" s="36">
         <v>208.363</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="19">
         <v>6.05681526464197</v>
       </c>
-      <c r="P36" s="29">
+      <c r="P36" s="49">
         <v>2.5713567129757608</v>
       </c>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="43">
+      <c r="Q36" s="29">
         <v>7.3545328567367521E-2</v>
       </c>
-      <c r="S36" s="60">
+      <c r="R36" s="46">
         <v>4.4045920214691909</v>
       </c>
-      <c r="T36" s="43">
+      <c r="S36" s="29">
         <v>0.53754000709343641</v>
       </c>
-      <c r="U36" s="50">
+      <c r="T36" s="36">
         <v>44640</v>
       </c>
-      <c r="V36" s="54">
+      <c r="U36" s="40">
         <v>1284</v>
       </c>
-      <c r="W36" s="63">
+      <c r="V36" s="49">
         <v>0.89577762748052803</v>
       </c>
-      <c r="X36" s="70">
+      <c r="W36" s="56">
         <v>2.6098839565041127E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>54.51</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>3.1070231331613867</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="23">
         <v>0.85633062562563511</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="28">
         <v>4.8093847428269429E-2</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="23">
         <v>3.8839514612886683</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="28">
         <v>0.9742068603277646</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
         <v>36060</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="39">
         <v>1374.7443919657126</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>41520</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="39">
         <v>1583.1159887062688</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="23">
         <v>0.26075961078076193</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="28">
         <v>1.4812382218042068E-2</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="10">
         <v>76.366</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="18">
         <v>3.3573166070539138</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="23">
         <v>0.94241408860069664</v>
       </c>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="42">
+      <c r="Q37" s="28">
         <v>4.1635203302245079E-2</v>
       </c>
-      <c r="S37" s="59">
+      <c r="R37" s="45">
         <v>2.6952012270834858</v>
       </c>
-      <c r="T37" s="42">
+      <c r="S37" s="28">
         <v>0.86999274920307301</v>
       </c>
-      <c r="U37" s="12">
+      <c r="T37" s="10">
         <v>40300</v>
       </c>
-      <c r="V37" s="53">
+      <c r="U37" s="39">
         <v>733</v>
       </c>
-      <c r="W37" s="37">
+      <c r="V37" s="23">
         <v>0.32830662977677416</v>
       </c>
-      <c r="X37" s="69">
+      <c r="W37" s="55">
         <v>1.4421590755475696E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>378.245</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>8.1731376686068362</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="23">
         <v>5.9420799392729471</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="28">
         <v>0.1212927817469731</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="23">
         <v>3.2934715209495971</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="28">
         <v>0.38894849853734059</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <v>50330</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="39">
         <v>19.558684243509099</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>57960</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="39">
         <v>21.527594421762707</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="23">
         <v>1.8094114654149567</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="28">
         <v>3.9311292273985721E-2</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="10">
         <v>679.88099999999997</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="18">
         <v>10.073333460180894</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P38" s="23">
         <v>8.3902447813415684</v>
       </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="42">
+      <c r="Q38" s="28">
         <v>0.12653671706349515</v>
       </c>
-      <c r="S38" s="59">
+      <c r="R38" s="45">
         <v>1.9784629985634441</v>
       </c>
-      <c r="T38" s="42">
+      <c r="S38" s="28">
         <v>0.25372959310315579</v>
       </c>
-      <c r="U38" s="12">
+      <c r="T38" s="10">
         <v>54840</v>
       </c>
-      <c r="V38" s="53">
+      <c r="U38" s="39">
         <v>293</v>
       </c>
-      <c r="W38" s="37">
+      <c r="V38" s="23">
         <v>2.922890288338567</v>
       </c>
-      <c r="X38" s="69">
+      <c r="W38" s="55">
         <v>4.3072228699410971E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>199.50200000000001</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>6.4877664916363953</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="23">
         <v>3.1340978256020078</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="28">
         <v>9.940927227307024E-2</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="23">
         <v>3.6062777209143637</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="28">
         <v>0.53777258534282513</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <v>46290</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I39" s="39">
         <v>1500.0506731477001</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>53310</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="39">
         <v>1727.4150877852455</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="23">
         <v>0.95435817042714299</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="28">
         <v>3.0998434548293163E-2</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="10">
         <v>341.91399999999999</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="18">
         <v>7.5766906628157864</v>
       </c>
-      <c r="P39" s="27">
+      <c r="P39" s="23">
         <v>4.2194768704635388</v>
       </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="42">
+      <c r="Q39" s="28">
         <v>9.2646949729614389E-2</v>
       </c>
-      <c r="S39" s="59">
+      <c r="R39" s="45">
         <v>2.2608031100995163</v>
       </c>
-      <c r="T39" s="42">
+      <c r="S39" s="28">
         <v>0.3918042608059516</v>
       </c>
-      <c r="U39" s="12">
+      <c r="T39" s="10">
         <v>50270</v>
       </c>
-      <c r="V39" s="53">
+      <c r="U39" s="39">
         <v>261</v>
       </c>
-      <c r="W39" s="37">
+      <c r="V39" s="23">
         <v>1.4699294583125471</v>
       </c>
-      <c r="X39" s="69">
+      <c r="W39" s="55">
         <v>3.2416635042533483E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>178.74299999999999</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>5.5322982566018615</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="23">
         <v>2.8079821136709393</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="28">
         <v>8.4488513321167497E-2</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="23">
         <v>2.9555924083287266</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="28">
         <v>0.57206716044865691</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <v>53350</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="39">
         <v>1365.8882766457016</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>61430</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="39">
         <v>1572.9175417492395</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="23">
         <v>0.85505329498781379</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="28">
         <v>2.66510581811569E-2</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="10">
         <v>337.96699999999998</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="18">
         <v>6.6947967183477664</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="23">
         <v>4.1707679108780304</v>
       </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="42">
+      <c r="Q40" s="28">
         <v>8.5070339262857272E-2</v>
       </c>
-      <c r="S40" s="59">
+      <c r="R40" s="45">
         <v>1.709985023412766</v>
       </c>
-      <c r="T40" s="42">
+      <c r="S40" s="28">
         <v>0.35703922640424018</v>
       </c>
-      <c r="U40" s="12">
+      <c r="T40" s="10">
         <v>58690</v>
       </c>
-      <c r="V40" s="53">
+      <c r="U40" s="39">
         <v>1423</v>
       </c>
-      <c r="W40" s="37">
+      <c r="V40" s="23">
         <v>1.4529608300260199</v>
       </c>
-      <c r="X40" s="69">
+      <c r="W40" s="55">
         <v>2.8770606375021296E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>137.94200000000001</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>4.4618631590401785</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="23">
         <v>2.1670144773445488</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="28">
         <v>7.0104436437811321E-2</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="23">
         <v>8.3985022201603829</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="28">
         <v>0.77422799471724724</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <v>41060</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="39">
         <v>1385.4742723343345</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>47280</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="39">
         <v>1595.4722094464619</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="23">
         <v>0.65987345863731173</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="28">
         <v>2.1397524296892682E-2</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="10">
         <v>135.79900000000001</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="18">
         <v>4.4342334568671466</v>
       </c>
-      <c r="P41" s="27">
+      <c r="P41" s="23">
         <v>1.6758621745002489</v>
       </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="42">
+      <c r="Q41" s="28">
         <v>5.3942649995602408E-2</v>
       </c>
-      <c r="S41" s="59">
+      <c r="R41" s="45">
         <v>3.6054915679350512</v>
       </c>
-      <c r="T41" s="42">
+      <c r="S41" s="28">
         <v>0.71477400674160751</v>
       </c>
-      <c r="U41" s="12">
+      <c r="T41" s="10">
         <v>45090</v>
       </c>
-      <c r="V41" s="53">
+      <c r="U41" s="39">
         <v>816</v>
       </c>
-      <c r="W41" s="37">
+      <c r="V41" s="23">
         <v>0.58381625352979283</v>
       </c>
-      <c r="X41" s="69">
+      <c r="W41" s="55">
         <v>1.9037633689436315E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>75.634</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>3.4362463750435599</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="23">
         <v>1.1881803437638834</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="28">
         <v>5.4031695948934193E-2</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="23">
         <v>7.2373203817419682</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="28">
         <v>1.1929100929311742</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
         <v>40130</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="39">
         <v>1161.005862919975</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>46210</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K42" s="39">
         <v>1336.980863724209</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="23">
         <v>0.3618105375489295</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="28">
         <v>1.644072531893525E-2</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="10">
         <v>89.227000000000004</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="18">
         <v>4.0796744232842892</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="23">
         <v>1.1011285373539843</v>
       </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="42">
+      <c r="Q42" s="28">
         <v>4.9547160610216696E-2</v>
       </c>
-      <c r="S42" s="59">
+      <c r="R42" s="45">
         <v>4.6110779917576004</v>
       </c>
-      <c r="T42" s="42">
+      <c r="S42" s="28">
         <v>1.0913213960224641</v>
       </c>
-      <c r="U42" s="12">
+      <c r="T42" s="10">
         <v>40270</v>
       </c>
-      <c r="V42" s="53">
+      <c r="U42" s="39">
         <v>482</v>
       </c>
-      <c r="W42" s="37">
+      <c r="V42" s="23">
         <v>0.38359761746185778</v>
       </c>
-      <c r="X42" s="69">
+      <c r="W42" s="55">
         <v>1.7496162320405625E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:23" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>67.679000000000002</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="19">
         <v>3.4995437059708228</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="24">
         <v>1.0632104276594634</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="29">
         <v>5.4501994821526657E-2</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="24">
         <v>8.5816926215928699</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="29">
         <v>1.7281262501568542</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="36">
         <v>38130</v>
       </c>
-      <c r="I43" s="54">
+      <c r="I43" s="40">
         <v>1373.3593389471562</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="13">
         <v>43910</v>
       </c>
-      <c r="K43" s="54">
+      <c r="K43" s="40">
         <v>1581.5210016005224</v>
       </c>
-      <c r="L43" s="63">
+      <c r="L43" s="49">
         <v>0.32375618598479516</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="29">
         <v>1.6690976899946905E-2</v>
       </c>
-      <c r="N43" s="50">
+      <c r="N43" s="36">
         <v>81.771000000000001</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="19">
         <v>3.2613451595928944</v>
       </c>
-      <c r="P43" s="29">
+      <c r="P43" s="49">
         <v>1.0091158688286352</v>
       </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="43">
+      <c r="Q43" s="29">
         <v>3.9181942808318437E-2</v>
       </c>
-      <c r="S43" s="60">
+      <c r="R43" s="46">
         <v>3.7140956292846603</v>
       </c>
-      <c r="T43" s="43">
+      <c r="S43" s="29">
         <v>0.95697454868949217</v>
       </c>
-      <c r="U43" s="50">
+      <c r="T43" s="36">
         <v>45370</v>
       </c>
-      <c r="V43" s="54">
+      <c r="U43" s="40">
         <v>690</v>
       </c>
-      <c r="W43" s="63">
+      <c r="V43" s="49">
         <v>0.35154337563151927</v>
       </c>
-      <c r="X43" s="70">
+      <c r="W43" s="56">
         <v>1.402078957470488E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="12">
         <v>78.424999999999997</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="19">
         <v>3.7668133149918654</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="24">
         <v>1.2320258542412481</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="29">
         <v>5.8613850073948502E-2</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="24">
         <v>4.5739497296333713</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="29">
         <v>1.0400537255756817</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="36">
         <v>50120</v>
       </c>
-      <c r="I44" s="54">
+      <c r="I44" s="40">
         <v>781.10057396029924</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="13">
         <v>57720</v>
       </c>
-      <c r="K44" s="54">
+      <c r="K44" s="40">
         <v>899.49289093374557</v>
       </c>
-      <c r="L44" s="63">
+      <c r="L44" s="49">
         <v>0.37516185058670437</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="29">
         <v>1.8022583099423676E-2</v>
       </c>
-      <c r="N44" s="50">
+      <c r="N44" s="36">
         <v>115.71899999999999</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="19">
         <v>4.7692781424446196</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P44" s="49">
         <v>1.4280598161326246</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="43">
+      <c r="Q44" s="29">
         <v>5.9067108899012427E-2</v>
       </c>
-      <c r="S44" s="60">
+      <c r="R44" s="46">
         <v>2.5196611359345802</v>
       </c>
-      <c r="T44" s="43">
+      <c r="S44" s="29">
         <v>0.5557192180802939</v>
       </c>
-      <c r="U44" s="50">
+      <c r="T44" s="36">
         <v>54560</v>
       </c>
-      <c r="V44" s="54">
+      <c r="U44" s="40">
         <v>1483</v>
       </c>
-      <c r="W44" s="63">
+      <c r="V44" s="49">
         <v>0.49748991555323746</v>
       </c>
-      <c r="X44" s="70">
+      <c r="W44" s="56">
         <v>2.0436255309292967E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>54.912999999999997</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>2.5729852603542063</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="23">
         <v>0.86266159686260302</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="28">
         <v>4.0681791690111831E-2</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="23">
         <v>5.3948180792403821</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="28">
         <v>0.96426787160107152</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="10">
         <v>39770</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="39">
         <v>922.14838502933992</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="11">
         <v>45790</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="39">
         <v>1061.9194817824891</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="23">
         <v>0.26268744279589029</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="28">
         <v>1.2288722162805295E-2</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="10">
         <v>99.869</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="18">
         <v>4.2905415858606935</v>
       </c>
-      <c r="P45" s="27">
+      <c r="P45" s="23">
         <v>1.2324588509868655</v>
       </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="42">
+      <c r="Q45" s="28">
         <v>5.190555641696306E-2</v>
       </c>
-      <c r="S45" s="59">
+      <c r="R45" s="45">
         <v>4.8134945597726055</v>
       </c>
-      <c r="T45" s="42">
+      <c r="S45" s="28">
         <v>1.1055808876062827</v>
       </c>
-      <c r="U45" s="12">
+      <c r="T45" s="10">
         <v>47760</v>
       </c>
-      <c r="V45" s="53">
+      <c r="U45" s="39">
         <v>1743</v>
       </c>
-      <c r="W45" s="37">
+      <c r="V45" s="23">
         <v>0.42934885694126523</v>
       </c>
-      <c r="X45" s="69">
+      <c r="W45" s="55">
         <v>1.8376585482316039E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>585.90599999999995</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>9.2326489481621543</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="23">
         <v>9.2043524406129755</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="28">
         <v>0.1437914969720776</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="23">
         <v>5.1719646463278153</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="28">
         <v>0.37831153724654759</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="10">
         <v>42300</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="39">
         <v>787.46557746763619</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>48720</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K46" s="39">
         <v>866.73721819750415</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="23">
         <v>2.8027998626694752</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="28">
         <v>4.4392050361587665E-2</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="10">
         <v>832.90300000000002</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="18">
         <v>12.280302479987999</v>
       </c>
-      <c r="P46" s="27">
+      <c r="P46" s="23">
         <v>10.27865177746361</v>
       </c>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="42">
+      <c r="Q46" s="28">
         <v>0.13609201396895532</v>
       </c>
-      <c r="S46" s="59">
+      <c r="R46" s="45">
         <v>2.7000702424930112</v>
       </c>
-      <c r="T46" s="42">
+      <c r="S46" s="28">
         <v>0.25487834407121951</v>
       </c>
-      <c r="U46" s="12">
+      <c r="T46" s="10">
         <v>48480</v>
       </c>
-      <c r="V46" s="53">
+      <c r="U46" s="39">
         <v>799</v>
       </c>
-      <c r="W46" s="37">
+      <c r="V46" s="23">
         <v>3.5807502928130917</v>
       </c>
-      <c r="X46" s="69">
+      <c r="W46" s="55">
         <v>5.2332192617751308E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>363.928</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>8.0699024405503277</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="23">
         <v>5.717165509497085</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="28">
         <v>0.1264399821518159</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="23">
         <v>4.8597019465771556</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="28">
         <v>0.50169470609451738</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="10">
         <v>43300</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="39">
         <v>926.60948462237116</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="11">
         <v>49870</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K47" s="39">
         <v>1067.0567553980159</v>
       </c>
-      <c r="L47" s="37">
+      <c r="L47" s="23">
         <v>1.7409232000040564</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="28">
         <v>3.8430393980826538E-2</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="10">
         <v>533.16700000000003</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="18">
         <v>9.5052753405674562</v>
       </c>
-      <c r="P47" s="27">
+      <c r="P47" s="23">
         <v>6.5796832671210694</v>
       </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="42">
+      <c r="Q47" s="28">
         <v>0.11028358241111742</v>
       </c>
-      <c r="S47" s="59">
+      <c r="R47" s="45">
         <v>2.3864845001757455</v>
       </c>
-      <c r="T47" s="42">
+      <c r="S47" s="28">
         <v>0.27713488923149598</v>
       </c>
-      <c r="U47" s="12">
+      <c r="T47" s="10">
         <v>50450</v>
       </c>
-      <c r="V47" s="53">
+      <c r="U47" s="39">
         <v>1288</v>
       </c>
-      <c r="W47" s="37">
+      <c r="V47" s="23">
         <v>2.2921491354554826</v>
       </c>
-      <c r="X47" s="69">
+      <c r="W47" s="55">
         <v>4.0540032290866633E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>41.523000000000003</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>2.77606715516754</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="23">
         <v>0.65230997189237283</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="28">
         <v>4.314480782223571E-2</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="23">
         <v>9.727699530516432</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="28">
         <v>1.9750570534406411</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="10">
         <v>39960</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="39">
         <v>1549.2023579911529</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="11">
         <v>46020</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="39">
         <v>1784.0167503214054</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="23">
         <v>0.19863366939001245</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48" s="28">
         <v>1.3297352651164567E-2</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="10">
         <v>73.531000000000006</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="18">
         <v>3.2399616201430548</v>
       </c>
-      <c r="P48" s="27">
+      <c r="P48" s="23">
         <v>0.90742804846263814</v>
       </c>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="42">
+      <c r="Q48" s="28">
         <v>3.969147115002377E-2</v>
       </c>
-      <c r="S48" s="59">
+      <c r="R48" s="45">
         <v>2.6196822217968161</v>
       </c>
-      <c r="T48" s="42">
+      <c r="S48" s="28">
         <v>0.74500461115995253</v>
       </c>
-      <c r="U48" s="12">
+      <c r="T48" s="10">
         <v>40570</v>
       </c>
-      <c r="V48" s="53">
+      <c r="U48" s="39">
         <v>2153</v>
       </c>
-      <c r="W48" s="37">
+      <c r="V48" s="23">
         <v>0.31611862339412805</v>
       </c>
-      <c r="X48" s="69">
+      <c r="W48" s="55">
         <v>1.3924918528290416E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>180.45500000000001</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>4.7624075476590626</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="23">
         <v>2.8348769592235179</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="28">
         <v>7.5258812030558259E-2</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="23">
         <v>4.6534233617118437</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="28">
         <v>0.76418961039424405</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="10">
         <v>42210</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="39">
         <v>1544.8553296739597</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="11">
         <v>48610</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="39">
         <v>1779.0108378968657</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="23">
         <v>0.86324299327540621</v>
       </c>
-      <c r="M49" s="42">
+      <c r="M49" s="28">
         <v>2.3008262581902E-2</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="10">
         <v>226.20500000000001</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="18">
         <v>6.4350137373590739</v>
       </c>
-      <c r="P49" s="27">
+      <c r="P49" s="23">
         <v>2.7915404618799018</v>
       </c>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="42">
+      <c r="Q49" s="28">
         <v>7.6320481085798308E-2</v>
       </c>
-      <c r="S49" s="59">
+      <c r="R49" s="45">
         <v>3.4243415215352244</v>
       </c>
-      <c r="T49" s="42">
+      <c r="S49" s="28">
         <v>0.53705218894131224</v>
       </c>
-      <c r="U49" s="12">
+      <c r="T49" s="10">
         <v>47570</v>
       </c>
-      <c r="V49" s="53">
+      <c r="U49" s="39">
         <v>1292</v>
       </c>
-      <c r="W49" s="37">
+      <c r="V49" s="23">
         <v>0.97248253396348128</v>
       </c>
-      <c r="X49" s="69">
+      <c r="W49" s="55">
         <v>2.7627519899647242E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:23" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="12">
         <v>100.61799999999999</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>3.6101971552811358</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="24">
         <v>1.5806691412438112</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="29">
         <v>5.6023770055620564E-2</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="24">
         <v>3.5061933399156269</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="29">
         <v>0.68385891785641006</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="36">
         <v>40250</v>
       </c>
-      <c r="I50" s="54">
+      <c r="I50" s="40">
         <v>26.766968053498584</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="13">
         <v>46350</v>
       </c>
-      <c r="K50" s="54">
+      <c r="K50" s="40">
         <v>30.824068344874107</v>
       </c>
-      <c r="L50" s="63">
+      <c r="L50" s="49">
         <v>0.4813265550823464</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="29">
         <v>1.7341486598506015E-2</v>
       </c>
-      <c r="N50" s="50">
+      <c r="N50" s="36">
         <v>193.07400000000001</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="19">
         <v>5.2845705501961087</v>
       </c>
-      <c r="P50" s="29">
+      <c r="P50" s="49">
         <v>2.3826789113282207</v>
       </c>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="43">
+      <c r="Q50" s="29">
         <v>6.2833714185437581E-2</v>
       </c>
-      <c r="S50" s="60">
+      <c r="R50" s="46">
         <v>2.1382312587163836</v>
       </c>
-      <c r="T50" s="43">
+      <c r="S50" s="29">
         <v>0.4225148039635197</v>
       </c>
-      <c r="U50" s="50">
+      <c r="T50" s="36">
         <v>45500</v>
       </c>
-      <c r="V50" s="54">
+      <c r="U50" s="40">
         <v>1309</v>
       </c>
-      <c r="W50" s="63">
+      <c r="V50" s="49">
         <v>0.83004837542258203</v>
       </c>
-      <c r="X50" s="70">
+      <c r="W50" s="56">
         <v>2.2484717163362172E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>53.063000000000002</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>2.2758768639801228</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="23">
         <v>0.83359882567552879</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="28">
         <v>3.5066768357087011E-2</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="23">
         <v>7.7868577185715884</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G51" s="28">
         <v>1.5566211328952415</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="10">
         <v>40280</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="39">
         <v>1419.1361466835142</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="11">
         <v>46390</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K51" s="39">
         <v>1634.2362530049948</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="23">
         <v>0.2538375935949288</v>
       </c>
-      <c r="M51" s="42">
+      <c r="M51" s="28">
         <v>1.085427396391998E-2</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="10">
         <v>43.723999999999997</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="18">
         <v>2.5714170217994594</v>
       </c>
-      <c r="P51" s="27">
+      <c r="P51" s="23">
         <v>0.53958716719452193</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="42">
+      <c r="Q51" s="28">
         <v>3.1622817404679933E-2</v>
       </c>
-      <c r="S51" s="59">
+      <c r="R51" s="45">
         <v>3.0858145415140101</v>
       </c>
-      <c r="T51" s="42">
+      <c r="S51" s="28">
         <v>1.1049202483639036</v>
       </c>
-      <c r="U51" s="12">
+      <c r="T51" s="10">
         <v>48840</v>
       </c>
-      <c r="V51" s="53">
+      <c r="U51" s="39">
         <v>2467</v>
       </c>
-      <c r="W51" s="37">
+      <c r="V51" s="23">
         <v>0.18797474111986584</v>
       </c>
-      <c r="X51" s="69">
+      <c r="W51" s="55">
         <v>1.1055493637929239E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>378.07799999999997</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>7.93118755924987</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="23">
         <v>5.9394564350630867</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="28">
         <v>0.12020088137921554</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="23">
         <v>5.8875584854328293</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="28">
         <v>0.48045054328957243</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="10">
         <v>37240</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="39">
         <v>531.62858003089616</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="11">
         <v>42880</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="39">
         <v>612.20813848652745</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="23">
         <v>1.8086125871357348</v>
       </c>
-      <c r="M52" s="42">
+      <c r="M52" s="28">
         <v>3.7567905638621238E-2</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="10">
         <v>497.536</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="18">
         <v>9.2701582429859393</v>
       </c>
-      <c r="P52" s="27">
+      <c r="P52" s="23">
         <v>6.139969829322423</v>
       </c>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="42">
+      <c r="Q52" s="28">
         <v>0.11115617493448994</v>
       </c>
-      <c r="S52" s="59">
+      <c r="R52" s="45">
         <v>3.1724088079296662</v>
       </c>
-      <c r="T52" s="42">
+      <c r="S52" s="28">
         <v>0.33206737915564882</v>
       </c>
-      <c r="U52" s="12">
+      <c r="T52" s="10">
         <v>41420</v>
       </c>
-      <c r="V52" s="53">
+      <c r="U52" s="39">
         <v>972</v>
       </c>
-      <c r="W52" s="37">
+      <c r="V52" s="23">
         <v>2.1389671758716853</v>
       </c>
-      <c r="X52" s="69">
+      <c r="W52" s="55">
         <v>3.951906930743259E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>12.098000000000001</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>1.5796531264806208</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="23">
         <v>0.19005481395741941</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="28">
         <v>2.4655878499899916E-2</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="10">
         <v>50090</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="39">
         <v>6666.9586126679442</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="11">
         <v>57680</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="39">
         <v>7677.477236816273</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="23">
         <v>5.7873230072017209E-2</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53" s="28">
         <v>7.5438796921512823E-3</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="10">
         <v>17.391999999999999</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="18">
         <v>1.4735147437334992</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="23">
         <v>0.21463040919968723</v>
       </c>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="42">
+      <c r="Q53" s="28">
         <v>1.809895934926661E-2</v>
       </c>
-      <c r="S53" s="59" t="s">
+      <c r="R53" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T53" s="46" t="s">
+      <c r="S53" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="U53" s="12">
+      <c r="T53" s="10">
         <v>49850</v>
       </c>
-      <c r="V53" s="53">
+      <c r="U53" s="39">
         <v>1681</v>
       </c>
-      <c r="W53" s="37">
+      <c r="V53" s="23">
         <v>7.47703022952316E-2</v>
       </c>
-      <c r="X53" s="69">
+      <c r="W53" s="55">
         <v>6.3347375296635994E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="12">
         <v>518.94000000000005</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <v>8.6452588422788121</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="24">
         <v>8.152342962065072</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="29">
         <v>0.13138727965855271</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="24">
         <v>6.8806541979978837</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="29">
         <v>0.42877907803436766</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54" s="36">
         <v>45160</v>
       </c>
-      <c r="I54" s="54">
+      <c r="I54" s="40">
         <v>528.21650052951975</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="13">
         <v>52010</v>
       </c>
-      <c r="K54" s="54">
+      <c r="K54" s="40">
         <v>581.39036597290817</v>
       </c>
-      <c r="L54" s="63">
+      <c r="L54" s="49">
         <v>2.4824544564037532</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="29">
         <v>4.1224047558961509E-2</v>
       </c>
-      <c r="N54" s="50">
+      <c r="N54" s="36">
         <v>573.70000000000005</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="19">
         <v>10.152014620261347</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="49">
         <v>7.079891085433565</v>
       </c>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="43">
+      <c r="Q54" s="29">
         <v>0.12324147054639638</v>
       </c>
-      <c r="S54" s="60">
+      <c r="R54" s="46">
         <v>3.1442952889903091</v>
       </c>
-      <c r="T54" s="43">
+      <c r="S54" s="29">
         <v>0.34491131318374374</v>
       </c>
-      <c r="U54" s="50">
+      <c r="T54" s="36">
         <v>50620</v>
       </c>
-      <c r="V54" s="54">
+      <c r="U54" s="40">
         <v>19</v>
       </c>
-      <c r="W54" s="63">
+      <c r="V54" s="49">
         <v>2.4664053833241937</v>
       </c>
-      <c r="X54" s="70">
+      <c r="W54" s="56">
         <v>4.3078113434893636E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>33.209000000000003</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>2.0195942661831854</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="23">
         <v>0.52170030721705585</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="28">
         <v>3.155669077517978E-2</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="23">
         <v>4.5122874647208651</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="28">
         <v>1.1360485002701017</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="10">
         <v>37950</v>
       </c>
-      <c r="I55" s="53">
+      <c r="I55" s="39">
         <v>2738.0378137705438</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="11">
         <v>43700</v>
       </c>
-      <c r="K55" s="53">
+      <c r="K55" s="39">
         <v>3153.0453704666684</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="23">
         <v>0.15886196871066452</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M55" s="28">
         <v>9.6494599651879859E-3</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="10">
         <v>40.780999999999999</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="18">
         <v>2.5365573322911508</v>
       </c>
-      <c r="P55" s="27">
+      <c r="P55" s="23">
         <v>0.50326832552739453</v>
       </c>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="42">
+      <c r="Q55" s="28">
         <v>3.1171913715933572E-2</v>
       </c>
-      <c r="S55" s="59">
+      <c r="R55" s="45">
         <v>1.8397239055409114</v>
       </c>
-      <c r="T55" s="42">
+      <c r="S55" s="28">
         <v>0.82082244259735659</v>
       </c>
-      <c r="U55" s="12">
+      <c r="T55" s="10">
         <v>45230</v>
       </c>
-      <c r="V55" s="53">
+      <c r="U55" s="39">
         <v>1757</v>
       </c>
-      <c r="W55" s="37">
+      <c r="V55" s="23">
         <v>0.17532242973216652</v>
       </c>
-      <c r="X55" s="69">
+      <c r="W55" s="55">
         <v>1.0867266315395422E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>126.292</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>4.360179119027106</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="23">
         <v>1.9839975668962155</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="28">
         <v>6.7740688245675099E-2</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="23">
         <v>8.1684049163723955</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="28">
         <v>0.99695669475208271</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="10">
         <v>52380</v>
       </c>
-      <c r="I56" s="53">
+      <c r="I56" s="39">
         <v>2049.3117655672845</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="11">
         <v>60320</v>
       </c>
-      <c r="K56" s="53">
+      <c r="K56" s="39">
         <v>2359.9283189469861</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="23">
         <v>0.60414332718260844</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="28">
         <v>2.08071349231316E-2</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="10">
         <v>152.47</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="18">
         <v>5.3595767510130878</v>
       </c>
-      <c r="P56" s="27">
+      <c r="P56" s="23">
         <v>1.8815948994179112</v>
       </c>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="42">
+      <c r="Q56" s="28">
         <v>6.6748807588426162E-2</v>
       </c>
-      <c r="S56" s="59">
+      <c r="R56" s="45">
         <v>2.3459876250792564</v>
       </c>
-      <c r="T56" s="42">
+      <c r="S56" s="28">
         <v>0.52882695093768095</v>
       </c>
-      <c r="U56" s="12">
+      <c r="T56" s="10">
         <v>64860</v>
       </c>
-      <c r="V56" s="53">
+      <c r="U56" s="39">
         <v>3204</v>
       </c>
-      <c r="W56" s="37">
+      <c r="V56" s="23">
         <v>0.65548689000425264</v>
       </c>
-      <c r="X56" s="69">
+      <c r="W56" s="55">
         <v>2.304157886273139E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>14.5</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>1.6970536526580413</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="23">
         <v>0.22778928768247492</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="28">
         <v>2.6569624291493395E-2</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="23">
         <v>9.2267850536440985</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="28">
         <v>3.5320217419495021</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="10">
         <v>43580</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="39">
         <v>2973.3131705427413</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="11">
         <v>50190</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="39">
         <v>3423.9816850509778</v>
       </c>
-      <c r="L57" s="37">
+      <c r="L57" s="23">
         <v>6.9363682926454742E-2</v>
       </c>
-      <c r="M57" s="42">
+      <c r="M57" s="28">
         <v>8.1176801114865461E-3</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="10">
         <v>19.692</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="18">
         <v>1.714007234523822</v>
       </c>
-      <c r="P57" s="27">
+      <c r="P57" s="23">
         <v>0.2430141454668952</v>
       </c>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="42">
+      <c r="Q57" s="28">
         <v>2.1308221794463629E-2</v>
       </c>
-      <c r="S57" s="59" t="s">
+      <c r="R57" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="46" t="s">
+      <c r="S57" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="U57" s="12">
+      <c r="T57" s="10">
         <v>45920</v>
       </c>
-      <c r="V57" s="53">
+      <c r="U57" s="39">
         <v>5315</v>
       </c>
-      <c r="W57" s="37">
+      <c r="V57" s="23">
         <v>8.4658279254697613E-2</v>
       </c>
-      <c r="X57" s="69">
+      <c r="W57" s="55">
         <v>7.3732844166013601E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>23.327000000000002</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>2.0403449830849687</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="23">
         <v>0.36645798025993742</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="28">
         <v>3.2097093176144662E-2</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="23">
         <v>7.1176996267675969</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="28">
         <v>2.7473426211838059</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="10">
         <v>49080</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="39">
         <v>1756.3969645067084</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>56520</v>
       </c>
-      <c r="K58" s="53">
+      <c r="K58" s="39">
         <v>2022.616082870391</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="23">
         <v>0.11158942287071791</v>
       </c>
-      <c r="M58" s="42">
+      <c r="M58" s="28">
         <v>9.7666938094135916E-3</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="10">
         <v>32.387</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="18">
         <v>2.5182631415322745</v>
       </c>
-      <c r="P58" s="27">
+      <c r="P58" s="23">
         <v>0.39968002890698429</v>
       </c>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="42">
+      <c r="Q58" s="28">
         <v>3.0631901500691852E-2</v>
       </c>
-      <c r="S58" s="59">
+      <c r="R58" s="45">
         <v>5.200260737307163</v>
       </c>
-      <c r="T58" s="42">
+      <c r="S58" s="28">
         <v>1.4574078723116539</v>
       </c>
-      <c r="U58" s="12">
+      <c r="T58" s="10">
         <v>53730</v>
       </c>
-      <c r="V58" s="53">
+      <c r="U58" s="39">
         <v>3863</v>
       </c>
-      <c r="W58" s="37">
+      <c r="V58" s="23">
         <v>0.13923561295053277</v>
       </c>
-      <c r="X58" s="69">
+      <c r="W58" s="55">
         <v>1.0827161232790764E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>172.828</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>4.8456217918859492</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="23">
         <v>2.7150597939025363</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="28">
         <v>7.5915134606792195E-2</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="23">
         <v>5.9421852295783415</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="28">
         <v>0.69877687656798071</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="10">
         <v>45220</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="39">
         <v>107.712448268578</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="11">
         <v>52070</v>
       </c>
-      <c r="K59" s="53">
+      <c r="K59" s="39">
         <v>124.03854857182472</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L59" s="23">
         <v>0.82675769605609106</v>
       </c>
-      <c r="M59" s="42">
+      <c r="M59" s="28">
         <v>2.315024645640289E-2</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="10">
         <v>167.16399999999999</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="18">
         <v>5.2300964713855906</v>
       </c>
-      <c r="P59" s="27">
+      <c r="P59" s="23">
         <v>2.0629299519006739</v>
       </c>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="42">
+      <c r="Q59" s="28">
         <v>6.5405656427608316E-2</v>
       </c>
-      <c r="S59" s="59">
+      <c r="R59" s="45">
         <v>4.2174131857070956</v>
       </c>
-      <c r="T59" s="42">
+      <c r="S59" s="28">
         <v>0.88784687799406958</v>
       </c>
-      <c r="U59" s="12">
+      <c r="T59" s="10">
         <v>50640</v>
       </c>
-      <c r="V59" s="53">
+      <c r="U59" s="39">
         <v>1299</v>
       </c>
-      <c r="W59" s="37">
+      <c r="V59" s="23">
         <v>0.71865816541398897</v>
       </c>
-      <c r="X59" s="69">
+      <c r="W59" s="55">
         <v>2.2469003526744948E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>116.339</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <v>4.3475296031194546</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="23">
         <v>1.8276398579097555</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="28">
         <v>6.7041185376775905E-2</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="23">
         <v>7.6080949749414026</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="28">
         <v>1.1529373333618091</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="10">
         <v>38200</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="39">
         <v>1252.636607811919</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="11">
         <v>43990</v>
       </c>
-      <c r="K60" s="53">
+      <c r="K60" s="39">
         <v>1442.5001865476186</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L60" s="23">
         <v>0.55653113848143576</v>
       </c>
-      <c r="M60" s="42">
+      <c r="M60" s="28">
         <v>2.0755136820683726E-2</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="10">
         <v>119.092</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="18">
         <v>5.2766210589732516</v>
       </c>
-      <c r="P60" s="27">
+      <c r="P60" s="23">
         <v>1.46968518240623</v>
       </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="42">
+      <c r="Q60" s="28">
         <v>6.3293198664049602E-2</v>
       </c>
-      <c r="S60" s="59">
+      <c r="R60" s="45">
         <v>2.6956344952500646</v>
       </c>
-      <c r="T60" s="42">
+      <c r="S60" s="28">
         <v>0.68206691638168893</v>
       </c>
-      <c r="U60" s="12">
+      <c r="T60" s="10">
         <v>43140</v>
       </c>
-      <c r="V60" s="53">
+      <c r="U60" s="39">
         <v>1418</v>
       </c>
-      <c r="W60" s="37">
+      <c r="V60" s="23">
         <v>0.51199084872031519</v>
       </c>
-      <c r="X60" s="69">
+      <c r="W60" s="55">
         <v>2.2537347075662385E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>32.445</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="18">
         <v>2.0272297230457137</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="23">
         <v>0.50969816819709646</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="28">
         <v>3.1892960340654732E-2</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="23">
         <v>5.3349918800317893</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="28">
         <v>1.3772383620551665</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="10">
         <v>40250</v>
       </c>
-      <c r="I61" s="53">
+      <c r="I61" s="39">
         <v>797.74969147221509</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="11">
         <v>46350</v>
       </c>
-      <c r="K61" s="53">
+      <c r="K61" s="39">
         <v>918.66553443387704</v>
       </c>
-      <c r="L61" s="37">
+      <c r="L61" s="23">
         <v>0.15520722017578098</v>
       </c>
-      <c r="M61" s="42">
+      <c r="M61" s="28">
         <v>9.7267959369048973E-3</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="10">
         <v>42.113999999999997</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="18">
         <v>2.8213922361132275</v>
       </c>
-      <c r="P61" s="27">
+      <c r="P61" s="23">
         <v>0.51971855180747639</v>
       </c>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="42">
+      <c r="Q61" s="28">
         <v>3.4863991452674492E-2</v>
       </c>
-      <c r="S61" s="59">
+      <c r="R61" s="45">
         <v>3.0729406940386488</v>
       </c>
-      <c r="T61" s="42">
+      <c r="S61" s="28">
         <v>1.0133181112454683</v>
       </c>
-      <c r="U61" s="12">
+      <c r="T61" s="10">
         <v>40080</v>
       </c>
-      <c r="V61" s="53">
+      <c r="U61" s="39">
         <v>961</v>
       </c>
-      <c r="W61" s="37">
+      <c r="V61" s="23">
         <v>0.18105315724823964</v>
       </c>
-      <c r="X61" s="69">
+      <c r="W61" s="55">
         <v>1.2100379770928612E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="12">
         <v>59.271999999999998</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="19">
         <v>2.7740681228116943</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="24">
         <v>0.93113976962176914</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="29">
         <v>4.3534505666987487E-2</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="24">
         <v>5.5831452219714066</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="29">
         <v>1.3760343795182293</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H62" s="36">
         <v>35020</v>
       </c>
-      <c r="I62" s="54">
+      <c r="I62" s="40">
         <v>138.09785836293787</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="13">
         <v>40330</v>
       </c>
-      <c r="K62" s="54">
+      <c r="K62" s="40">
         <v>159.02951040073299</v>
       </c>
-      <c r="L62" s="63">
+      <c r="L62" s="49">
         <v>0.28353960099426384</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="29">
         <v>1.3206451083641548E-2</v>
       </c>
-      <c r="N62" s="50">
+      <c r="N62" s="36">
         <v>99.438999999999993</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="19">
         <v>4.8022655434700825</v>
       </c>
-      <c r="P62" s="29">
+      <c r="P62" s="49">
         <v>1.2271523263803874</v>
       </c>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="43">
+      <c r="Q62" s="29">
         <v>5.9208271530815391E-2</v>
       </c>
-      <c r="S62" s="60">
+      <c r="R62" s="46">
         <v>2.9863731770181943</v>
       </c>
-      <c r="T62" s="43">
+      <c r="S62" s="29">
         <v>0.70846184228398701</v>
       </c>
-      <c r="U62" s="50">
+      <c r="T62" s="36">
         <v>40480</v>
       </c>
-      <c r="V62" s="54">
+      <c r="U62" s="40">
         <v>431</v>
       </c>
-      <c r="W62" s="63">
+      <c r="V62" s="49">
         <v>0.42750023516188684</v>
       </c>
-      <c r="X62" s="70">
+      <c r="W62" s="56">
         <v>2.073209138471958E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>27.777000000000001</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>1.9899341572021927</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="23">
         <v>0.4363657271693866</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="28">
         <v>3.1281976654740515E-2</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="23">
         <v>3.8875767595654227</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="28">
         <v>1.8809387358199161</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="10">
         <v>32790</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="39">
         <v>1348.9967098572431</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="11">
         <v>37770</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="39">
         <v>1553.4657006554403</v>
       </c>
-      <c r="L63" s="37">
+      <c r="L63" s="23">
         <v>0.13287689797573332</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="28">
         <v>9.5214696269619713E-3</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="10">
         <v>34.755000000000003</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O63" s="18">
         <v>2.2000417155135943</v>
       </c>
-      <c r="P63" s="27">
+      <c r="P63" s="23">
         <v>0.42890293650730965</v>
       </c>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="42">
+      <c r="Q63" s="28">
         <v>2.6382357579813238E-2</v>
       </c>
-      <c r="S63" s="59">
+      <c r="R63" s="45">
         <v>1.9637462235649545</v>
       </c>
-      <c r="T63" s="46">
+      <c r="S63" s="32">
         <v>0.95233448719655445</v>
       </c>
-      <c r="U63" s="12">
+      <c r="T63" s="10">
         <v>35230</v>
       </c>
-      <c r="V63" s="53">
+      <c r="U63" s="39">
         <v>919</v>
       </c>
-      <c r="W63" s="37">
+      <c r="V63" s="23">
         <v>0.1494159300983656</v>
       </c>
-      <c r="X63" s="69">
+      <c r="W63" s="55">
         <v>9.4140383691887521E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>26.492999999999999</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="20">
         <v>1.9905602352101781</v>
       </c>
-      <c r="D64" s="39">
+      <c r="D64" s="25">
         <v>0.41619459300495226</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="30">
         <v>3.1148764961612164E-2</v>
       </c>
-      <c r="F64" s="39">
+      <c r="F64" s="25">
         <v>8.9754010695187159</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="30">
         <v>2.3119208294301514</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="14">
         <v>36660</v>
       </c>
-      <c r="I64" s="55">
+      <c r="I64" s="41">
         <v>2542.3316235781967</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="14">
         <v>42220</v>
       </c>
-      <c r="K64" s="55">
+      <c r="K64" s="41">
         <v>2927.675766783992</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="25">
         <v>0.12673462426003901</v>
       </c>
-      <c r="M64" s="44">
+      <c r="M64" s="30">
         <v>9.5315983467658075E-3</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="14">
         <v>26.234000000000002</v>
       </c>
-      <c r="O64" s="22">
+      <c r="O64" s="20">
         <v>2.0921234428207143</v>
       </c>
-      <c r="P64" s="31">
+      <c r="P64" s="25">
         <v>0.32374736401475362</v>
       </c>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="44">
+      <c r="Q64" s="30">
         <v>2.5725248232386592E-2</v>
       </c>
-      <c r="S64" s="61">
+      <c r="R64" s="47">
         <v>5.2945351312987938</v>
       </c>
-      <c r="T64" s="44">
+      <c r="S64" s="30">
         <v>2.4372624493137955</v>
       </c>
-      <c r="U64" s="16">
+      <c r="T64" s="14">
         <v>40250</v>
       </c>
-      <c r="V64" s="55">
+      <c r="U64" s="41">
         <v>5725</v>
       </c>
-      <c r="W64" s="39">
+      <c r="V64" s="25">
         <v>0.11278312502375264</v>
       </c>
-      <c r="X64" s="71">
+      <c r="W64" s="57">
         <v>8.9919565721703707E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="68.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:23" ht="68.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="70"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="56"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>1345.027</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="18">
         <v>13.699305283480635</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D66" s="23">
         <v>21.129844292668704</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="28">
         <v>0.20774926699475771</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="23">
         <v>5.0031807806009807</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="28">
         <v>0.25976475464975418</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="10">
         <v>53150</v>
       </c>
-      <c r="I66" s="53">
+      <c r="I66" s="39">
         <v>966.80218980959114</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="11">
         <v>61210</v>
       </c>
-      <c r="K66" s="53">
+      <c r="K66" s="39">
         <v>1113.3415153745689</v>
       </c>
-      <c r="L66" s="37">
+      <c r="L66" s="23">
         <v>6.4342087141738373</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66" s="28">
         <v>6.5713394246556339E-2</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="10">
         <v>1900.9849999999999</v>
       </c>
-      <c r="O66" s="20">
+      <c r="O66" s="18">
         <v>20.967604207443493</v>
       </c>
-      <c r="P66" s="27">
+      <c r="P66" s="23">
         <v>23.459589951268828</v>
       </c>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="42">
+      <c r="Q66" s="28">
         <v>0.21876399289264589</v>
       </c>
-      <c r="S66" s="59">
+      <c r="R66" s="45">
         <v>3.1637420978778188</v>
       </c>
-      <c r="T66" s="42">
+      <c r="S66" s="28">
         <v>0.14590812592979824</v>
       </c>
-      <c r="U66" s="12">
+      <c r="T66" s="10">
         <v>60760</v>
       </c>
-      <c r="V66" s="53">
+      <c r="U66" s="39">
         <v>216</v>
       </c>
-      <c r="W66" s="37">
+      <c r="V66" s="23">
         <v>8.1725634262132498</v>
       </c>
-      <c r="X66" s="69">
+      <c r="W66" s="55">
         <v>8.7789374966419795E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>5020.5050000000001</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="18">
         <v>29.389094973305639</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="23">
         <v>78.870155707331293</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="28">
         <v>0.20774926699475468</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="23">
         <v>5.6953849271348727</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="28">
         <v>0.13802837073419838</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="10">
         <v>41660</v>
       </c>
-      <c r="I67" s="53">
+      <c r="I67" s="39">
         <v>692.39580040423436</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="11">
         <v>47970</v>
       </c>
-      <c r="K67" s="53">
+      <c r="K67" s="39">
         <v>797.34303230411479</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L67" s="23">
         <v>24.016601169012457</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="28">
         <v>0.13606102124202879</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="10">
         <v>6202.2470000000003</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="18">
         <v>33.811132239988297</v>
       </c>
-      <c r="P67" s="27">
+      <c r="P67" s="23">
         <v>76.540410048731175</v>
       </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="42">
+      <c r="Q67" s="28">
         <v>0.21876399289264623</v>
       </c>
-      <c r="S67" s="59">
+      <c r="R67" s="45">
         <v>2.8555310923335839</v>
       </c>
-      <c r="T67" s="42">
+      <c r="S67" s="28">
         <v>9.3691128388852768E-2</v>
       </c>
-      <c r="U67" s="12">
+      <c r="T67" s="10">
         <v>48560</v>
       </c>
-      <c r="V67" s="67">
+      <c r="U67" s="53">
         <v>20</v>
       </c>
-      <c r="W67" s="37">
+      <c r="V67" s="23">
         <v>26.664206709963967</v>
       </c>
-      <c r="X67" s="69">
+      <c r="W67" s="55">
         <v>0.13801434724392192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>